--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_176__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_176__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,49 +5417,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>5.332962989807129</c:v>
+                  <c:v>5.332967281341553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.087363243103027</c:v>
+                  <c:v>-9.087357521057129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.29647064208984</c:v>
+                  <c:v>40.29645538330078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.79281616210938</c:v>
+                  <c:v>75.79282379150391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.29171752929688</c:v>
+                  <c:v>84.29170989990234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.29230499267578</c:v>
+                  <c:v>82.29228973388672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.929756045341492</c:v>
+                  <c:v>1.929766416549683</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.4237203598022461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.9639892578125</c:v>
+                  <c:v>92.96400451660156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4135984778404236</c:v>
+                  <c:v>0.413602888584137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.49888610839844</c:v>
+                  <c:v>91.4989013671875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.47276782989502</c:v>
+                  <c:v>6.472769260406494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3269561231136322</c:v>
+                  <c:v>0.3269590437412262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.86740303039551</c:v>
+                  <c:v>18.86757850646973</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92.66485595703125</c:v>
+                  <c:v>92.66484832763672</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>91.50216674804688</c:v>
@@ -5468,79 +5468,79 @@
                   <c:v>76.14002227783203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.02943420410156</c:v>
+                  <c:v>93.02944183349609</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.971929907798767</c:v>
+                  <c:v>1.97192108631134</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>86.89076995849609</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.51259994506836</c:v>
+                  <c:v>43.51240921020508</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84.87645721435547</c:v>
+                  <c:v>84.87647247314453</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.5805169939994812</c:v>
+                  <c:v>-0.5805258750915527</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2.294212818145752</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.495343923568726</c:v>
+                  <c:v>1.495361566543579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3623594641685486</c:v>
+                  <c:v>0.362360954284668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.5861092805862427</c:v>
+                  <c:v>-0.5861122012138367</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9536567330360413</c:v>
+                  <c:v>0.953662633895874</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.06108093261719</c:v>
+                  <c:v>82.06106567382812</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.05094518139958382</c:v>
+                  <c:v>0.05095990747213364</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>93.41110992431641</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.93852996826172</c:v>
+                  <c:v>85.93852233886719</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.4907044172286987</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>88.58441162109375</c:v>
+                  <c:v>88.58440399169922</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.661725759506226</c:v>
+                  <c:v>2.661722660064697</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.63434600830078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.9022262692451477</c:v>
+                  <c:v>-0.9022159576416016</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85.11341857910156</c:v>
+                  <c:v>85.1134033203125</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>76.69732666015625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>63.88372421264648</c:v>
+                  <c:v>63.88373184204102</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>92.31007385253906</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.361106395721436</c:v>
+                  <c:v>3.361112356185913</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>83.13949584960938</c:v>
@@ -5549,19 +5549,19 @@
                   <c:v>89.49027252197266</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5694510936737061</c:v>
+                  <c:v>0.5694319009780884</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.179234981536865</c:v>
+                  <c:v>1.179226160049438</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95.51161956787109</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.162728071212769</c:v>
+                  <c:v>3.16272497177124</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.850116968154907</c:v>
+                  <c:v>2.850130319595337</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>95.21533966064453</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>81.77185821533203</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7545116543769836</c:v>
+                  <c:v>0.7545043230056763</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>92.39590454101562</c:v>
@@ -5579,7 +5579,7 @@
                   <c:v>83.14175415039062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.17385101318359</c:v>
+                  <c:v>92.17385864257812</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>2.356512546539307</c:v>
@@ -5588,40 +5588,40 @@
                   <c:v>95.55397796630859</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>93.99631500244141</c:v>
+                  <c:v>93.99632263183594</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.243834018707275</c:v>
+                  <c:v>4.243840217590332</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>91.24771118164062</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.153581619262695</c:v>
+                  <c:v>2.153577327728271</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.558063983917236</c:v>
+                  <c:v>4.558060646057129</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>47.22192001342773</c:v>
+                  <c:v>47.22190856933594</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.6560080051422119</c:v>
+                  <c:v>-0.6560035943984985</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.27655792236328</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1186906844377518</c:v>
+                  <c:v>0.1186980530619621</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>82.31458282470703</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.704052567481995</c:v>
+                  <c:v>1.704046726226807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>92.8634033203125</c:v>
+                  <c:v>92.86341857910156</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>94.91516876220703</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>0.9515705108642578</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>94.02442932128906</c:v>
+                  <c:v>94.02443695068359</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>94.81568908691406</c:v>
@@ -5648,40 +5648,40 @@
                   <c:v>88.14353942871094</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>88.63726043701172</c:v>
+                  <c:v>88.63726806640625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.7155323028564453</c:v>
+                  <c:v>0.7155190706253052</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80.43808746337891</c:v>
+                  <c:v>80.43809509277344</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>91.74387359619141</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>50.48988723754883</c:v>
+                  <c:v>50.48988342285156</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.4934998154640198</c:v>
+                  <c:v>-0.493493914604187</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.11755108833313</c:v>
+                  <c:v>3.117557048797607</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>92.93495178222656</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.042595386505127</c:v>
+                  <c:v>4.042598247528076</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34.08541107177734</c:v>
+                  <c:v>34.08540725708008</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95.01496887207031</c:v>
+                  <c:v>95.01497650146484</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.005941309034824371</c:v>
+                  <c:v>-0.00595014588907361</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>89.67451477050781</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.332962989807129</v>
+        <v>5.332967281341553</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-9.087363243103027</v>
+        <v>-9.087357521057129</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>40.29647064208984</v>
+        <v>40.29645538330078</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>75.79281616210938</v>
+        <v>75.79282379150391</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>84.29171752929688</v>
+        <v>84.29170989990234</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>82.29230499267578</v>
+        <v>82.29228973388672</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.929756045341492</v>
+        <v>1.929766416549683</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>92.9639892578125</v>
+        <v>92.96400451660156</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4135984778404236</v>
+        <v>0.413602888584137</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>91.49888610839844</v>
+        <v>91.4989013671875</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.47276782989502</v>
+        <v>6.472769260406494</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3269561231136322</v>
+        <v>0.3269590437412262</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>18.86740303039551</v>
+        <v>18.86757850646973</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>92.66485595703125</v>
+        <v>92.66484832763672</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>93.02943420410156</v>
+        <v>93.02944183349609</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.971929907798767</v>
+        <v>1.97192108631134</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>43.51259994506836</v>
+        <v>43.51240921020508</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>84.87645721435547</v>
+        <v>84.87647247314453</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.5805169939994812</v>
+        <v>-0.5805258750915527</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.495343923568726</v>
+        <v>1.495361566543579</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.3623594641685486</v>
+        <v>0.362360954284668</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.5861092805862427</v>
+        <v>-0.5861122012138367</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.9536567330360413</v>
+        <v>0.953662633895874</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>82.06108093261719</v>
+        <v>82.06106567382812</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.05094518139958382</v>
+        <v>0.05095990747213364</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>85.93852996826172</v>
+        <v>85.93852233886719</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>88.58441162109375</v>
+        <v>88.58440399169922</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.661725759506226</v>
+        <v>2.661722660064697</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.9022262692451477</v>
+        <v>-0.9022159576416016</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>85.11341857910156</v>
+        <v>85.1134033203125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>63.88372421264648</v>
+        <v>63.88373184204102</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>3.361106395721436</v>
+        <v>3.361112356185913</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.5694510936737061</v>
+        <v>0.5694319009780884</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.179234981536865</v>
+        <v>1.179226160049438</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>3.162728071212769</v>
+        <v>3.16272497177124</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.850116968154907</v>
+        <v>2.850130319595337</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.7545116543769836</v>
+        <v>0.7545043230056763</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>92.17385101318359</v>
+        <v>92.17385864257812</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>93.99631500244141</v>
+        <v>93.99632263183594</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>4.243834018707275</v>
+        <v>4.243840217590332</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2.153581619262695</v>
+        <v>2.153577327728271</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4.558063983917236</v>
+        <v>4.558060646057129</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>47.22192001342773</v>
+        <v>47.22190856933594</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.6560080051422119</v>
+        <v>-0.6560035943984985</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.1186906844377518</v>
+        <v>0.1186980530619621</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.704052567481995</v>
+        <v>1.704046726226807</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>92.8634033203125</v>
+        <v>92.86341857910156</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>94.02442932128906</v>
+        <v>94.02443695068359</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>88.63726043701172</v>
+        <v>88.63726806640625</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.7155323028564453</v>
+        <v>0.7155190706253052</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>80.43808746337891</v>
+        <v>80.43809509277344</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>50.48988723754883</v>
+        <v>50.48988342285156</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.4934998154640198</v>
+        <v>-0.493493914604187</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>3.11755108833313</v>
+        <v>3.117557048797607</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>4.042595386505127</v>
+        <v>4.042598247528076</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>34.08541107177734</v>
+        <v>34.08540725708008</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>95.01496887207031</v>
+        <v>95.01497650146484</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.005941309034824371</v>
+        <v>-0.00595014588907361</v>
       </c>
     </row>
     <row r="91" spans="1:6">
